--- a/Execution Providers Tester/opset_22/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 11:59:53</t>
+          <t>2025-08-27 12:34:42</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 12:34:42</t>
+          <t>2025-08-27 16:53:05</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-27 16:53:05</t>
+          <t>2025-08-29 10:48:36</t>
         </is>
       </c>
     </row>
